--- a/GECO/EIS/2021-opt-out-form.xlsx
+++ b/GECO/EIS/2021-opt-out-form.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jing WorkFolder\EI\2021EI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwaldron\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10CE6AB8-C486-4355-AFB8-A0B0A503DFF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96C6DAC-60EE-4DE1-9C16-219E4B3C65CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CACAC4CB-994E-45FD-A41B-F437926AC343}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CACAC4CB-994E-45FD-A41B-F437926AC343}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Opt Out Form" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$7:$I$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Opt Out Form'!$B$6:$I$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
-  <si>
-    <t>Do not delete</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Facility Information</t>
   </si>
@@ -96,9 +93,6 @@
     <t>Operating Status</t>
   </si>
   <si>
-    <t>If Operating but below PTE thresholds, please list PTE below.</t>
-  </si>
-  <si>
     <t>Opt Out Justification</t>
   </si>
   <si>
@@ -165,7 +159,43 @@
     <t>Colocated Facility AIRS NO.</t>
   </si>
   <si>
-    <t xml:space="preserve">Form instructions: Light yellow cells indicate a drop-down list. Box with * is the required data field. </t>
+    <t xml:space="preserve">Form instructions: Light yellow cells indicate a drop-down list. Box with * is a required data field. </t>
+  </si>
+  <si>
+    <t>(tpy)</t>
+  </si>
+  <si>
+    <t>NEI Year</t>
+  </si>
+  <si>
+    <t>Colocation Question</t>
+  </si>
+  <si>
+    <t>PTE Justification type</t>
+  </si>
+  <si>
+    <t>Permit requested limit.</t>
+  </si>
+  <si>
+    <t>PTE calculated for Title V application</t>
+  </si>
+  <si>
+    <t>Do not delete content in grey filled cells.</t>
+  </si>
+  <si>
+    <t>Select PTE type.</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide permit condition and/or PTE calculations submitted for applicable permit in workbook </t>
+  </si>
+  <si>
+    <t>* If Operating but below PTE thresholds, it is required to list PTE below and select PTE type.</t>
+  </si>
+  <si>
+    <t>or upload to CAERS in addition to this opt-out form. *</t>
   </si>
 </sst>
 </file>
@@ -202,18 +232,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -223,18 +247,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -616,23 +640,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -645,89 +678,132 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -737,40 +813,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -781,21 +833,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1112,741 +1149,890 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8772551-2ED6-4178-AF21-F40FDB965EF3}">
-  <dimension ref="B1:O53"/>
+  <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScale="89" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="1.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="3.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="1.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" style="5" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="5" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="29.109375" style="5" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" style="5" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-    </row>
-    <row r="3" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="67" t="s">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="76"/>
+      <c r="K3" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+    </row>
+    <row r="4" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+    </row>
+    <row r="5" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+    </row>
+    <row r="6" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="K6" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
-      <c r="K3" s="50" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
-      <c r="K4" s="50"/>
-    </row>
-    <row r="5" spans="2:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="K5" s="50"/>
-    </row>
-    <row r="6" spans="2:13" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="K6" s="50"/>
-    </row>
-    <row r="7" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="29" t="s">
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+      <c r="K7" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="64" t="s">
-        <v>7</v>
-      </c>
+      <c r="M7" s="52"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="65"/>
       <c r="G8" s="66"/>
-      <c r="K8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="5" t="str">
-        <f>E8</f>
-        <v>Annual</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="35" t="s">
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+    </row>
+    <row r="10" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-    </row>
-    <row r="10" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="35" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="6"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+    </row>
+    <row r="11" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-    </row>
-    <row r="11" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="35" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="6"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+    </row>
+    <row r="12" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="35" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="6"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+    </row>
+    <row r="13" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="35" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="66"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+    </row>
+    <row r="14" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="61"/>
       <c r="F14" s="62"/>
       <c r="G14" s="63"/>
-    </row>
-    <row r="15" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="3:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+    </row>
+    <row r="15" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="7"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+    </row>
+    <row r="16" spans="2:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="K16" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+    </row>
+    <row r="17" spans="3:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="3:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="14"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+    </row>
+    <row r="18" spans="3:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C18" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="3:14" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C19" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
+      <c r="K18" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="50"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C19" s="31"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
       <c r="H19" s="32"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N19" s="5" t="s">
+      <c r="K19" s="53"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C20" s="31"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="6"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C21" s="31"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="6"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+    </row>
+    <row r="22" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="6"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+    </row>
+    <row r="23" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="6"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+    </row>
+    <row r="24" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="6"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+    </row>
+    <row r="25" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="31"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13" t="str">
+        <f>E7</f>
+        <v>Annual</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="6"/>
+      <c r="K25" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="50"/>
+      <c r="N25" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25" s="50"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C26" s="31"/>
+      <c r="D26" s="54" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="33"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="s">
+      <c r="E26" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="6"/>
+      <c r="K26" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="50"/>
+      <c r="N26" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="O26" s="50"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C27" s="31"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="6"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" s="50"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C28" s="31"/>
+      <c r="D28" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="18">
+        <f t="shared" ref="G28:G35" si="0">IF($E$7="Triennial",L28,K28)</f>
+        <v>250</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="6"/>
+      <c r="K28" s="52">
+        <v>250</v>
+      </c>
+      <c r="L28" s="52">
+        <v>100</v>
+      </c>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C29" s="31"/>
+      <c r="D29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="33"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C22" s="33"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C23" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="33"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15" t="str">
-        <f>E8</f>
-        <v>Annual</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C25" s="33"/>
-      <c r="D25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="L25" s="51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C26" s="33"/>
-      <c r="D26" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20">
-        <f t="shared" ref="F26:F33" si="0">IF($E$8="Triennial",L26,K26)</f>
-        <v>250</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="5">
-        <v>250</v>
-      </c>
-      <c r="L26" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C27" s="33"/>
-      <c r="D27" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20">
+      <c r="E29" s="18"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="18">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="5">
+      <c r="H29" s="15"/>
+      <c r="I29" s="6"/>
+      <c r="K29" s="52">
         <v>2500</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L29" s="52">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="33"/>
-      <c r="D28" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20">
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C30" s="31"/>
+      <c r="D30" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="18">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="5">
+      <c r="H30" s="15"/>
+      <c r="I30" s="6"/>
+      <c r="K30" s="52">
         <v>2500</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L30" s="52">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="33"/>
-      <c r="D29" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20">
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C31" s="31"/>
+      <c r="D31" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="18">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="5">
+      <c r="H31" s="15"/>
+      <c r="I31" s="6"/>
+      <c r="K31" s="52">
         <v>2500</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L31" s="52">
         <v>1000</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="33"/>
-      <c r="D30" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20" t="str">
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C32" s="31"/>
+      <c r="D32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="18" t="str">
         <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C31" s="33"/>
-      <c r="D31" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20">
+      <c r="H32" s="15"/>
+      <c r="I32" s="6"/>
+      <c r="K32" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C33" s="31"/>
+      <c r="D33" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="18">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="5">
+      <c r="H33" s="15"/>
+      <c r="I33" s="6"/>
+      <c r="K33" s="52">
         <v>250</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L33" s="52">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="33"/>
-      <c r="D32" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20">
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C34" s="31"/>
+      <c r="D34" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="18">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="5">
+      <c r="H34" s="15"/>
+      <c r="I34" s="6"/>
+      <c r="K34" s="52">
         <v>250</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L34" s="52">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C33" s="33"/>
-      <c r="D33" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20">
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C35" s="31"/>
+      <c r="D35" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="18">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="5">
+      <c r="H35" s="15"/>
+      <c r="I35" s="6"/>
+      <c r="K35" s="52">
         <v>250</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L35" s="52">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C34" s="33"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C35" s="33"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C36" s="33"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+    </row>
+    <row r="36" spans="3:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C36" s="34"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="17"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C37" s="33"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="17"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+    </row>
+    <row r="37" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C38" s="33"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="17"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+    </row>
+    <row r="38" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="34"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="37"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C39" s="33"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="17"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+    </row>
+    <row r="39" spans="3:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C39" s="34"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="37"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="3:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C40" s="36"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+    </row>
+    <row r="40" spans="3:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C40" s="34"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="37"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="36" t="s">
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+    </row>
+    <row r="41" spans="3:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C41" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="38"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="36"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="28" t="s">
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+    </row>
+    <row r="42" spans="3:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C42" s="38"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="39"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="37"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="3:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C43" s="36"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="28" t="s">
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+    </row>
+    <row r="43" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="38"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="6"/>
+      <c r="K43" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+    </row>
+    <row r="44" spans="3:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C44" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="3:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C44" s="36"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="39"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="15"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="3:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C45" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="38"/>
+      <c r="K44" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="L44" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+    </row>
+    <row r="45" spans="3:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C45" s="34"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="15"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="3:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C46" s="40"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="39"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+    </row>
+    <row r="46" spans="3:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C46" s="34"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="15"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-    </row>
-    <row r="47" spans="3:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C47" s="40"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="39"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+    </row>
+    <row r="47" spans="3:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C47" s="34"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="58"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="15"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-    </row>
-    <row r="48" spans="3:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C48" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="17"/>
-      <c r="K48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C49" s="36"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" s="46"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="17"/>
-    </row>
-    <row r="50" spans="3:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C50" s="36"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="17"/>
-    </row>
-    <row r="51" spans="3:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C51" s="36"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="73"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="17"/>
-    </row>
-    <row r="52" spans="3:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="41"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="3:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C53" s="13"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50"/>
+    </row>
+    <row r="48" spans="3:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="39"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="6"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+    </row>
+    <row r="49" spans="3:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C49" s="11"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E14:G14"/>
+  <mergeCells count="18">
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E11:G11"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E7:G7"/>
     <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{80E4156A-241C-499C-B65D-D0CD7A5B8476}">
-      <formula1>$K$8:$L$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{80E4156A-241C-499C-B65D-D0CD7A5B8476}">
+      <formula1>$K$7:$L$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20:J39" xr:uid="{0C72CB71-2AB0-41E0-8C9A-FEF0EB2D5948}">
-      <formula1>#REF!</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:G18" xr:uid="{5DC03C8D-9741-424D-B7F8-3A826324783B}">
+      <formula1>$K$18:$N$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:G19" xr:uid="{5DC03C8D-9741-424D-B7F8-3A826324783B}">
-      <formula1>$K$19:$N$19</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44:G44" xr:uid="{8EBD7528-927C-4C3B-AD4B-4857F449B7AE}">
+      <formula1>$K$44:$M$44</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F48:G48" xr:uid="{8EBD7528-927C-4C3B-AD4B-4857F449B7AE}">
-      <formula1>$K$48:$M$48</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28:F31 F33:F35" xr:uid="{7B86C7CF-A475-476D-B4A7-72CD18819A51}">
+      <formula1>$N$26:$N$27</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="74" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="9" min="6" max="74" man="1"/>
+    <brk id="9" min="5" max="73" man="1"/>
   </colBreaks>
 </worksheet>
 </file>